--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb2-Grm5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb2-Grm5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>52.61615766666667</v>
+        <v>45.76217133333333</v>
       </c>
       <c r="H2">
-        <v>157.848473</v>
+        <v>137.286514</v>
       </c>
       <c r="I2">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605134</v>
       </c>
       <c r="J2">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605135</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,33 +555,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.002773333333333334</v>
+        <v>0.0006176666666666666</v>
       </c>
       <c r="N2">
-        <v>0.008320000000000001</v>
+        <v>0.001853</v>
       </c>
       <c r="O2">
-        <v>0.9681172911333488</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.9681172911333489</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.1459221439288889</v>
+        <v>0.02826576782688889</v>
       </c>
       <c r="R2">
-        <v>1.31329929536</v>
+        <v>0.254391910442</v>
       </c>
       <c r="S2">
-        <v>0.7426931636968647</v>
+        <v>0.6763939203605134</v>
       </c>
       <c r="T2">
-        <v>0.7426931636968648</v>
+        <v>0.6763939203605135</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>52.61615766666667</v>
+        <v>9.395935333333332</v>
       </c>
       <c r="H3">
-        <v>157.848473</v>
+        <v>28.187806</v>
       </c>
       <c r="I3">
-        <v>0.7671520491359202</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="J3">
-        <v>0.7671520491359202</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,33 +617,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>9.133333333333335E-05</v>
+        <v>0.0006176666666666666</v>
       </c>
       <c r="N3">
-        <v>0.000274</v>
+        <v>0.001853</v>
       </c>
       <c r="O3">
-        <v>0.03188270886665115</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.03188270886665116</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.00480560906688889</v>
+        <v>0.005803556057555555</v>
       </c>
       <c r="R3">
-        <v>0.04325048160200001</v>
+        <v>0.052232004518</v>
       </c>
       <c r="S3">
-        <v>0.0244588854390554</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="T3">
-        <v>0.02445888543905541</v>
+        <v>0.1388778842960613</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.395935333333332</v>
+        <v>12.29750866666667</v>
       </c>
       <c r="H4">
-        <v>28.187806</v>
+        <v>36.892526</v>
       </c>
       <c r="I4">
-        <v>0.1369942497546098</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="J4">
-        <v>0.1369942497546098</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,33 +679,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.002773333333333334</v>
+        <v>0.0006176666666666666</v>
       </c>
       <c r="N4">
-        <v>0.008320000000000001</v>
+        <v>0.001853</v>
       </c>
       <c r="O4">
-        <v>0.9681172911333488</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.9681172911333489</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.02605806065777778</v>
+        <v>0.007595761186444444</v>
       </c>
       <c r="R4">
-        <v>0.23452254592</v>
+        <v>0.06836185067800001</v>
       </c>
       <c r="S4">
-        <v>0.1326265019732783</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="T4">
-        <v>0.1326265019732783</v>
+        <v>0.1817649787009828</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.395935333333332</v>
+        <v>0.2004796666666666</v>
       </c>
       <c r="H5">
-        <v>28.187806</v>
+        <v>0.6014389999999999</v>
       </c>
       <c r="I5">
-        <v>0.1369942497546098</v>
+        <v>0.002963216642442438</v>
       </c>
       <c r="J5">
-        <v>0.1369942497546098</v>
+        <v>0.002963216642442439</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,276 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>9.133333333333335E-05</v>
+        <v>0.0006176666666666666</v>
       </c>
       <c r="N5">
-        <v>0.000274</v>
+        <v>0.001853</v>
       </c>
       <c r="O5">
-        <v>0.03188270886665115</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.03188270886665116</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.0008581620937777778</v>
+        <v>0.0001238296074444444</v>
       </c>
       <c r="R5">
-        <v>0.007723458844000001</v>
+        <v>0.001114466467</v>
       </c>
       <c r="S5">
-        <v>0.00436774778133152</v>
+        <v>0.002963216642442438</v>
       </c>
       <c r="T5">
-        <v>0.004367747781331521</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>6.492645</v>
-      </c>
-      <c r="H6">
-        <v>19.477935</v>
-      </c>
-      <c r="I6">
-        <v>0.09466380931151776</v>
-      </c>
-      <c r="J6">
-        <v>0.09466380931151776</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.002773333333333334</v>
-      </c>
-      <c r="N6">
-        <v>0.008320000000000001</v>
-      </c>
-      <c r="O6">
-        <v>0.9681172911333488</v>
-      </c>
-      <c r="P6">
-        <v>0.9681172911333489</v>
-      </c>
-      <c r="Q6">
-        <v>0.0180062688</v>
-      </c>
-      <c r="R6">
-        <v>0.1620564192000001</v>
-      </c>
-      <c r="S6">
-        <v>0.09164567063903045</v>
-      </c>
-      <c r="T6">
-        <v>0.09164567063903047</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>6.492645</v>
-      </c>
-      <c r="H7">
-        <v>19.477935</v>
-      </c>
-      <c r="I7">
-        <v>0.09466380931151776</v>
-      </c>
-      <c r="J7">
-        <v>0.09466380931151776</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>9.133333333333335E-05</v>
-      </c>
-      <c r="N7">
-        <v>0.000274</v>
-      </c>
-      <c r="O7">
-        <v>0.03188270886665115</v>
-      </c>
-      <c r="P7">
-        <v>0.03188270886665116</v>
-      </c>
-      <c r="Q7">
-        <v>0.0005929949100000002</v>
-      </c>
-      <c r="R7">
-        <v>0.005336954190000001</v>
-      </c>
-      <c r="S7">
-        <v>0.003018138672487301</v>
-      </c>
-      <c r="T7">
-        <v>0.003018138672487302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.08161033333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.244831</v>
-      </c>
-      <c r="I8">
-        <v>0.001189891797952309</v>
-      </c>
-      <c r="J8">
-        <v>0.001189891797952308</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.002773333333333334</v>
-      </c>
-      <c r="N8">
-        <v>0.008320000000000001</v>
-      </c>
-      <c r="O8">
-        <v>0.9681172911333488</v>
-      </c>
-      <c r="P8">
-        <v>0.9681172911333489</v>
-      </c>
-      <c r="Q8">
-        <v>0.0002263326577777778</v>
-      </c>
-      <c r="R8">
-        <v>0.00203699392</v>
-      </c>
-      <c r="S8">
-        <v>0.001151954824175379</v>
-      </c>
-      <c r="T8">
-        <v>0.001151954824175379</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.08161033333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.244831</v>
-      </c>
-      <c r="I9">
-        <v>0.001189891797952309</v>
-      </c>
-      <c r="J9">
-        <v>0.001189891797952308</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>9.133333333333335E-05</v>
-      </c>
-      <c r="N9">
-        <v>0.000274</v>
-      </c>
-      <c r="O9">
-        <v>0.03188270886665115</v>
-      </c>
-      <c r="P9">
-        <v>0.03188270886665116</v>
-      </c>
-      <c r="Q9">
-        <v>7.453743777777778E-06</v>
-      </c>
-      <c r="R9">
-        <v>6.7083694E-05</v>
-      </c>
-      <c r="S9">
-        <v>3.793697377692955E-05</v>
-      </c>
-      <c r="T9">
-        <v>3.793697377692955E-05</v>
+        <v>0.002963216642442439</v>
       </c>
     </row>
   </sheetData>
